--- a/angle_map.xlsx
+++ b/angle_map.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargav\Desktop\old_desktop\rbtics\arm_vision\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E836FD8B-ED09-4364-A019-03FEF2D8782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="bottom" sheetId="1" r:id="rId1"/>
-    <sheet name="mid" sheetId="2" r:id="rId2"/>
-    <sheet name="top" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="bottom"/>
+    <sheet r:id="rId2" sheetId="2" name="mid"/>
+    <sheet r:id="rId3" sheetId="3" name="top"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,13 +27,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,7 +52,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -62,23 +71,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -87,12 +114,12 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="New Office">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -119,22 +146,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -142,86 +229,79 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -230,7 +310,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -239,50 +319,72 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -293,246 +395,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" style="4" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>55</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>50</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>60</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>70</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>80</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>90</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>14</v>
       </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J3:L3"/>
   </mergeCells>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BE1050-D103-4AB7-89D2-8D32C9A34EF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>-57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>-55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>60</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>80</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>-40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>100</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>-35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>120</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>-29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>140</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>-17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>160</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>170</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>-8</v>
       </c>
     </row>
@@ -542,126 +769,139 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206AA770-06C5-4D5F-8070-6A3BF1A915FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>-27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>-30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>-40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>60</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>-44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>80</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>-57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>-60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>120</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>-66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>140</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>-70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>150</v>
       </c>
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
